--- a/probability/Zn/3His/threshold.xlsx
+++ b/probability/Zn/3His/threshold.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241113_Metal_Intaller_Data_Final\ZN\3His\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\3His\probability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397E53DE-4CE8-4881-A869-F5327AB14A64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70950859-A8EE-432A-8EB2-5CB6C0EFECD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/probability/Zn/3His/threshold.xlsx
+++ b/probability/Zn/3His/threshold.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\3His\probability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\250330_Metal_installer_revision\Zn\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70950859-A8EE-432A-8EB2-5CB6C0EFECD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E805AEEF-BC19-41BF-B9D1-7F8FE37C1BE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -469,7 +469,7 @@
         <v>3.5</v>
       </c>
       <c r="C2" s="2">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -499,7 +499,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C5" s="2">
         <v>1.5</v>
